--- a/simulation_data/two_step_algorithm/2s_error_level_7_percent_water_80.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_7_percent_water_80.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>91.82253164103793</v>
+        <v>91.34505640143296</v>
       </c>
       <c r="D2" t="n">
-        <v>14.91216230315317</v>
+        <v>13.89512079092595</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>90.14500352980959</v>
+        <v>91.21953528684975</v>
       </c>
       <c r="D3" t="n">
-        <v>15.48381636936714</v>
+        <v>15.20259591443046</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>89.86170340478137</v>
+        <v>92.00012061265457</v>
       </c>
       <c r="D4" t="n">
-        <v>14.51357946084098</v>
+        <v>12.79299683790368</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>89.71326833104567</v>
+        <v>89.33015900192258</v>
       </c>
       <c r="D5" t="n">
-        <v>15.85587854028451</v>
+        <v>14.06142711151115</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>88.71985647977381</v>
+        <v>86.97002442813599</v>
       </c>
       <c r="D6" t="n">
-        <v>11.1760255081313</v>
+        <v>13.10390955207794</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>88.24532390282235</v>
+        <v>85.68824808316235</v>
       </c>
       <c r="D7" t="n">
-        <v>12.33053464217102</v>
+        <v>14.14327574825745</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>86.26796179195304</v>
+        <v>83.65567762373892</v>
       </c>
       <c r="D8" t="n">
-        <v>14.32577976317121</v>
+        <v>14.41993159049188</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>84.1679860735026</v>
+        <v>83.46757849365085</v>
       </c>
       <c r="D9" t="n">
-        <v>13.39348884651525</v>
+        <v>13.29123690634279</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>83.76208077106394</v>
+        <v>84.11061510116042</v>
       </c>
       <c r="D10" t="n">
-        <v>13.29258880373543</v>
+        <v>13.08280620567509</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.24722352078209</v>
+        <v>83.80736833352174</v>
       </c>
       <c r="D11" t="n">
-        <v>14.30534941528443</v>
+        <v>12.7881640590462</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>84.07770823700739</v>
+        <v>80.63402755258366</v>
       </c>
       <c r="D12" t="n">
-        <v>13.15961705140995</v>
+        <v>12.00424057936319</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>80.34654510384412</v>
+        <v>80.93998045302958</v>
       </c>
       <c r="D13" t="n">
-        <v>14.40452839059103</v>
+        <v>13.37088804163383</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>80.96555858029333</v>
+        <v>79.95591120052131</v>
       </c>
       <c r="D14" t="n">
-        <v>15.07540480541959</v>
+        <v>13.32687200487312</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>82.08538015713617</v>
+        <v>80.23084096485988</v>
       </c>
       <c r="D15" t="n">
-        <v>12.40905524612105</v>
+        <v>11.90537879629452</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>78.96217632165684</v>
+        <v>78.87134702829606</v>
       </c>
       <c r="D16" t="n">
-        <v>11.44932278109129</v>
+        <v>13.45262568898402</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>76.41180864012544</v>
+        <v>75.67496390936118</v>
       </c>
       <c r="D17" t="n">
-        <v>13.13705759436268</v>
+        <v>13.92725322072026</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>77.86068746248721</v>
+        <v>78.06148634830738</v>
       </c>
       <c r="D18" t="n">
-        <v>13.61100412600075</v>
+        <v>14.73340050651518</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>74.29093338754903</v>
+        <v>76.3494364627684</v>
       </c>
       <c r="D19" t="n">
-        <v>13.07316183701999</v>
+        <v>12.20622863299123</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>73.97507543169908</v>
+        <v>73.871251121239</v>
       </c>
       <c r="D20" t="n">
-        <v>15.01466128957394</v>
+        <v>11.64158891472601</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.15016294238576</v>
+        <v>71.27965048001658</v>
       </c>
       <c r="D21" t="n">
-        <v>14.23804046289222</v>
+        <v>14.2938152577729</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>71.50623318475057</v>
+        <v>71.29849555782164</v>
       </c>
       <c r="D22" t="n">
-        <v>15.29594665830085</v>
+        <v>14.55487669042364</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>70.49432319710317</v>
+        <v>69.25846985418622</v>
       </c>
       <c r="D23" t="n">
-        <v>13.69893281252599</v>
+        <v>13.13046747587141</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>70.07697778662573</v>
+        <v>70.21303849891055</v>
       </c>
       <c r="D24" t="n">
-        <v>12.92049034234794</v>
+        <v>12.81536304253883</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>68.82734271925783</v>
+        <v>67.59555783387285</v>
       </c>
       <c r="D25" t="n">
-        <v>13.6278888609298</v>
+        <v>13.96074440259245</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.48869853411438</v>
+        <v>67.3668103765323</v>
       </c>
       <c r="D26" t="n">
-        <v>13.9739485564607</v>
+        <v>12.24541889271603</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>63.93704034232715</v>
+        <v>67.07172808285932</v>
       </c>
       <c r="D27" t="n">
-        <v>12.4483015173379</v>
+        <v>13.34103751478062</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.98929999331604</v>
+        <v>65.36352976938117</v>
       </c>
       <c r="D28" t="n">
-        <v>11.99994279122669</v>
+        <v>12.66251928401625</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>64.28048085660957</v>
+        <v>64.51326771677546</v>
       </c>
       <c r="D29" t="n">
-        <v>13.91714622300031</v>
+        <v>12.94861597057404</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.94717376982152</v>
+        <v>64.37126084435849</v>
       </c>
       <c r="D30" t="n">
-        <v>14.12237995071727</v>
+        <v>12.07973299144005</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.46310459688363</v>
+        <v>60.73418724905018</v>
       </c>
       <c r="D31" t="n">
-        <v>12.86371858312946</v>
+        <v>12.07870507757649</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>61.22800168192818</v>
+        <v>60.12236402384708</v>
       </c>
       <c r="D32" t="n">
-        <v>12.7386204245202</v>
+        <v>14.69208398739335</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>60.64569910296922</v>
+        <v>60.41802802372123</v>
       </c>
       <c r="D33" t="n">
-        <v>14.04555420099062</v>
+        <v>11.37422060094668</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.18788439367537</v>
+        <v>57.17134068883303</v>
       </c>
       <c r="D34" t="n">
-        <v>13.62901149490171</v>
+        <v>12.25573543668164</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>55.46597098072439</v>
+        <v>56.41003058233787</v>
       </c>
       <c r="D35" t="n">
-        <v>11.2769357270034</v>
+        <v>13.23529900035606</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.43995637901816</v>
+        <v>54.70665817962517</v>
       </c>
       <c r="D36" t="n">
-        <v>12.51087567243211</v>
+        <v>13.00367493379468</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>57.18422409398723</v>
+        <v>54.33682140593603</v>
       </c>
       <c r="D37" t="n">
-        <v>15.16542635118497</v>
+        <v>14.18049641619601</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.52141567379993</v>
+        <v>52.10765340761694</v>
       </c>
       <c r="D38" t="n">
-        <v>14.18429366553581</v>
+        <v>12.39620219691253</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>54.88248183694959</v>
+        <v>52.84761371215025</v>
       </c>
       <c r="D39" t="n">
-        <v>14.37904343218774</v>
+        <v>12.74369741043174</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.24852236818926</v>
+        <v>54.05823944637567</v>
       </c>
       <c r="D40" t="n">
-        <v>13.06449748425471</v>
+        <v>13.38194520578886</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.32140399780216</v>
+        <v>48.62331883359548</v>
       </c>
       <c r="D41" t="n">
-        <v>12.97191281772713</v>
+        <v>13.14091272777553</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>51.62972655504895</v>
+        <v>50.39287185829467</v>
       </c>
       <c r="D42" t="n">
-        <v>14.26400112832738</v>
+        <v>12.96863700197084</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>51.00031118487695</v>
+        <v>48.42894979047649</v>
       </c>
       <c r="D43" t="n">
-        <v>14.48718965157983</v>
+        <v>12.68826745257074</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>49.14325058098743</v>
+        <v>46.93105343844127</v>
       </c>
       <c r="D44" t="n">
-        <v>11.58662253553797</v>
+        <v>14.28455378013005</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.89094821863137</v>
+        <v>47.36215036316064</v>
       </c>
       <c r="D45" t="n">
-        <v>12.22949181427287</v>
+        <v>10.51772472811647</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.57200947084047</v>
+        <v>46.71234357668554</v>
       </c>
       <c r="D46" t="n">
-        <v>12.31853478887947</v>
+        <v>10.78139531713091</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.56891120998246</v>
+        <v>43.01544555591801</v>
       </c>
       <c r="D47" t="n">
-        <v>12.43142381723404</v>
+        <v>13.23268990140755</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>40.93306331302567</v>
+        <v>45.80127374777096</v>
       </c>
       <c r="D48" t="n">
-        <v>13.54203929096847</v>
+        <v>12.34908197058744</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>45.07857468840766</v>
+        <v>43.57124500277808</v>
       </c>
       <c r="D49" t="n">
-        <v>14.4656341768564</v>
+        <v>13.14758169722086</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.47618753390446</v>
+        <v>42.39975871230995</v>
       </c>
       <c r="D50" t="n">
-        <v>13.28028501869245</v>
+        <v>13.99646773293109</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.05177128149097</v>
+        <v>38.36819070917343</v>
       </c>
       <c r="D51" t="n">
-        <v>14.0604466062347</v>
+        <v>13.10953176305586</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>41.17047755091426</v>
+        <v>40.37658697346829</v>
       </c>
       <c r="D52" t="n">
-        <v>12.5495902785131</v>
+        <v>12.69213639215402</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>40.22388210250081</v>
+        <v>40.05392862797874</v>
       </c>
       <c r="D53" t="n">
-        <v>12.7515520015125</v>
+        <v>14.80291707829691</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.68014596666122</v>
+        <v>38.99054034738357</v>
       </c>
       <c r="D54" t="n">
-        <v>13.30760473935074</v>
+        <v>11.90362232372624</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>38.60648956330387</v>
+        <v>37.89378399562603</v>
       </c>
       <c r="D55" t="n">
-        <v>14.12058532368598</v>
+        <v>13.13849053178899</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.56829655692038</v>
+        <v>35.44278257902167</v>
       </c>
       <c r="D56" t="n">
-        <v>11.98636928184652</v>
+        <v>12.89063226651413</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>36.30728766343477</v>
+        <v>33.95401377875143</v>
       </c>
       <c r="D57" t="n">
-        <v>13.00191087141277</v>
+        <v>12.03505731756353</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>35.9929340218559</v>
+        <v>34.71232487943863</v>
       </c>
       <c r="D58" t="n">
-        <v>12.45227035612423</v>
+        <v>12.14480505680093</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.82255972922211</v>
+        <v>32.25830618066882</v>
       </c>
       <c r="D59" t="n">
-        <v>12.69149060622896</v>
+        <v>12.07498783967954</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.48039474120764</v>
+        <v>32.87892500928024</v>
       </c>
       <c r="D60" t="n">
-        <v>12.50954722208363</v>
+        <v>13.28751574513314</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>29.92467571485115</v>
+        <v>31.44316651143103</v>
       </c>
       <c r="D61" t="n">
-        <v>12.2377230022429</v>
+        <v>11.1338624123555</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>33.48124146045074</v>
+        <v>30.85545610925874</v>
       </c>
       <c r="D62" t="n">
-        <v>11.76172911457581</v>
+        <v>12.29179528582149</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.89527742461265</v>
+        <v>29.4506421782258</v>
       </c>
       <c r="D63" t="n">
-        <v>12.30292271277755</v>
+        <v>13.60628619328273</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.81669367875153</v>
+        <v>28.82895810252681</v>
       </c>
       <c r="D64" t="n">
-        <v>13.36227324740085</v>
+        <v>11.6311103431279</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.16160127208677</v>
+        <v>24.87437267113312</v>
       </c>
       <c r="D65" t="n">
-        <v>12.64454012846076</v>
+        <v>12.20438744104714</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.39240310677938</v>
+        <v>22.14077069516565</v>
       </c>
       <c r="D66" t="n">
-        <v>11.60638062133714</v>
+        <v>11.72155964476322</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>27.59613587909491</v>
+        <v>25.43359411209035</v>
       </c>
       <c r="D67" t="n">
-        <v>10.66088455739724</v>
+        <v>12.2199625446095</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.93288281288553</v>
+        <v>25.97072555053327</v>
       </c>
       <c r="D68" t="n">
-        <v>12.82287138230227</v>
+        <v>10.72694148993854</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.70059192556131</v>
+        <v>21.70670866527508</v>
       </c>
       <c r="D69" t="n">
-        <v>12.94777198226835</v>
+        <v>12.77044786610166</v>
       </c>
     </row>
   </sheetData>
